--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:58:25+00:00</t>
+    <t>2022-09-20T21:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,48 +278,52 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Encounter.uuid</t>
+  </si>
+  <si>
+    <t>Encounter.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Encounter.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Encounter.uuid</t>
-  </si>
-  <si>
-    <t>Encounter.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Encounter.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -370,10 +374,6 @@
   </si>
   <si>
     <t>Encounter.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2412,13 +2412,13 @@
         <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2469,7 +2469,7 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2487,7 +2487,7 @@
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>77</v>
@@ -2501,11 +2501,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2524,16 +2524,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2571,19 +2571,19 @@
         <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -2595,13 +2595,13 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>77</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2638,7 +2638,7 @@
         <v>86</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>117</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3776,16 +3776,16 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3847,7 +3847,7 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3890,7 +3890,7 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>192</v>
@@ -3899,7 +3899,7 @@
         <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>194</v>
@@ -3963,7 +3963,7 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>77</v>
@@ -4309,7 +4309,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4346,13 +4346,13 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4403,7 +4403,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4421,7 +4421,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4458,16 +4458,16 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4517,7 +4517,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4529,13 +4529,13 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4572,7 +4572,7 @@
         <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>224</v>
@@ -4581,7 +4581,7 @@
         <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>194</v>
@@ -4645,7 +4645,7 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4875,7 +4875,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5099,7 +5099,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5136,13 +5136,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5193,7 +5193,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5211,7 +5211,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5248,16 +5248,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5307,7 +5307,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5319,13 +5319,13 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5362,7 +5362,7 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>224</v>
@@ -5371,7 +5371,7 @@
         <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>194</v>
@@ -5435,7 +5435,7 @@
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
@@ -5553,7 +5553,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5665,7 +5665,7 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5891,7 +5891,7 @@
         <v>259</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -6229,7 +6229,7 @@
         <v>290</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>291</v>
@@ -6490,13 +6490,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6547,7 +6547,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6565,7 +6565,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6602,16 +6602,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6661,7 +6661,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6673,13 +6673,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6716,7 +6716,7 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>224</v>
@@ -6725,7 +6725,7 @@
         <v>225</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>194</v>
@@ -6789,7 +6789,7 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
@@ -7850,13 +7850,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7907,7 +7907,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7925,7 +7925,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7962,16 +7962,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8021,7 +8021,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8033,13 +8033,13 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8076,7 +8076,7 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>224</v>
@@ -8085,7 +8085,7 @@
         <v>225</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>194</v>
@@ -8149,7 +8149,7 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
@@ -8381,7 +8381,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8758,13 +8758,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8815,7 +8815,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8833,7 +8833,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8870,16 +8870,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8929,7 +8929,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8941,13 +8941,13 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8984,7 +8984,7 @@
         <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>224</v>
@@ -8993,7 +8993,7 @@
         <v>225</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>194</v>
@@ -9057,7 +9057,7 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
@@ -9511,7 +9511,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10226,13 +10226,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10283,7 +10283,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10301,7 +10301,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10338,16 +10338,16 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10397,7 +10397,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10409,13 +10409,13 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10452,7 +10452,7 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>224</v>
@@ -10461,7 +10461,7 @@
         <v>225</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>194</v>
@@ -10525,7 +10525,7 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:17:20+00:00</t>
+    <t>2022-09-20T21:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:19:27+00:00</t>
+    <t>2022-09-20T21:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:37:06+00:00</t>
+    <t>2022-10-08T01:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,10 +254,6 @@
   </si>
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2143,27 +2139,27 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2171,31 +2167,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2245,39 +2241,39 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN3" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2288,25 +2284,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2357,19 +2353,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2389,7 +2385,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2400,7 +2396,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
@@ -2412,13 +2408,13 @@
         <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2469,25 +2465,25 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>77</v>
@@ -2501,11 +2497,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2524,16 +2520,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2571,19 +2567,19 @@
         <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -2595,13 +2591,13 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>77</v>
@@ -2615,7 +2611,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2626,28 +2622,28 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2697,19 +2693,19 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>77</v>
@@ -2729,7 +2725,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2740,28 +2736,28 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2811,19 +2807,19 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>77</v>
@@ -2843,7 +2839,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2854,28 +2850,28 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2925,19 +2921,19 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2957,7 +2953,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2977,19 +2973,19 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3039,7 +3035,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3051,7 +3047,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -3071,7 +3067,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3091,19 +3087,19 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3129,31 +3125,31 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3165,7 +3161,7 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
@@ -3185,7 +3181,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3205,19 +3201,19 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3243,29 +3239,29 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3277,7 +3273,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>77</v>
@@ -3297,7 +3293,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3308,28 +3304,28 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3379,19 +3375,19 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>77</v>
@@ -3411,7 +3407,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3422,7 +3418,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
@@ -3434,16 +3430,16 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3469,43 +3465,43 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
@@ -3525,18 +3521,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3548,16 +3544,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3607,25 +3603,25 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3639,11 +3635,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3662,16 +3658,16 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3721,7 +3717,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3739,7 +3735,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3753,11 +3749,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3776,16 +3772,16 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3835,7 +3831,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3847,13 +3843,13 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3867,11 +3863,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3884,25 +3880,25 @@
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3951,7 +3947,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3963,13 +3959,13 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -3983,7 +3979,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4003,16 +3999,16 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4063,7 +4059,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4075,19 +4071,19 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4095,7 +4091,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4103,31 +4099,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4153,63 +4149,63 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AN20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4232,16 +4228,16 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4291,7 +4287,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4303,13 +4299,13 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4323,7 +4319,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4334,7 +4330,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4346,13 +4342,13 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4403,25 +4399,25 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4435,11 +4431,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4458,16 +4454,16 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4517,7 +4513,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4529,13 +4525,13 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4549,11 +4545,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4566,25 +4562,25 @@
         <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4633,7 +4629,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4645,13 +4641,13 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4665,7 +4661,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4673,10 +4669,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4688,13 +4684,13 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4721,14 +4717,14 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4745,25 +4741,25 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4777,7 +4773,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4785,10 +4781,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4800,13 +4796,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4857,25 +4853,25 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4889,7 +4885,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4897,28 +4893,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4945,55 +4941,55 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5001,7 +4997,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5024,13 +5020,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5081,7 +5077,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5093,13 +5089,13 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5113,7 +5109,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5124,7 +5120,7 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5136,13 +5132,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5193,25 +5189,25 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5225,11 +5221,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5248,16 +5244,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5307,7 +5303,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5319,13 +5315,13 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5339,11 +5335,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5356,25 +5352,25 @@
         <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5423,7 +5419,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5435,13 +5431,13 @@
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5455,7 +5451,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5463,10 +5459,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5478,13 +5474,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5511,14 +5507,14 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5535,25 +5531,25 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5567,7 +5563,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5575,10 +5571,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5590,13 +5586,13 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5647,25 +5643,25 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5679,7 +5675,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5687,7 +5683,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>76</v>
@@ -5699,19 +5695,19 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5737,14 +5733,14 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5761,7 +5757,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5773,19 +5769,19 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5793,7 +5789,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5813,16 +5809,16 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5849,55 +5845,55 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5905,7 +5901,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5928,13 +5924,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5961,55 +5957,55 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6017,39 +6013,39 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6099,39 +6095,39 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6151,16 +6147,16 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6211,7 +6207,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6223,19 +6219,19 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6243,11 +6239,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6266,13 +6262,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6323,7 +6319,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6335,13 +6331,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6355,7 +6351,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6375,16 +6371,16 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6435,7 +6431,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6447,27 +6443,27 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6478,7 +6474,7 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6490,13 +6486,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6547,25 +6543,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6579,11 +6575,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6602,16 +6598,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6661,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6673,13 +6669,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6693,11 +6689,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6710,25 +6706,25 @@
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6777,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6789,13 +6785,13 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6809,7 +6805,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6829,19 +6825,19 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6867,13 +6863,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6891,7 +6887,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6903,19 +6899,19 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6923,7 +6919,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6934,7 +6930,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6946,13 +6942,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7003,31 +6999,31 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7035,7 +7031,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7046,25 +7042,25 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7115,31 +7111,31 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7147,7 +7143,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7167,16 +7163,16 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7227,7 +7223,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7239,19 +7235,19 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7259,7 +7255,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7267,10 +7263,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7282,16 +7278,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7341,31 +7337,31 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7373,7 +7369,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7396,16 +7392,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7455,31 +7451,31 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7487,11 +7483,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7507,19 +7503,19 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7545,14 +7541,14 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7569,7 +7565,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7581,19 +7577,19 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7601,11 +7597,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7621,19 +7617,19 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="L51" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7683,7 +7679,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7695,19 +7691,19 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7715,7 +7711,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7735,16 +7731,16 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7795,7 +7791,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7807,13 +7803,13 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7827,7 +7823,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7838,7 +7834,7 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -7850,13 +7846,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7907,25 +7903,25 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7939,11 +7935,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7962,16 +7958,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8021,7 +8017,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8033,13 +8029,13 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8053,11 +8049,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8070,25 +8066,25 @@
         <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8137,7 +8133,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8149,13 +8145,13 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8169,39 +8165,39 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F56" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J56" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8251,31 +8247,31 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8283,7 +8279,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8294,7 +8290,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8306,13 +8302,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8339,14 +8335,14 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8363,25 +8359,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8395,7 +8391,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8406,7 +8402,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8418,13 +8414,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8475,25 +8471,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8507,7 +8503,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8530,16 +8526,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8589,7 +8585,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8601,13 +8597,13 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8621,7 +8617,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8644,16 +8640,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8703,25 +8699,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8735,7 +8731,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8746,7 +8742,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8758,13 +8754,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8815,25 +8811,25 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8847,11 +8843,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8870,16 +8866,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8929,7 +8925,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8941,13 +8937,13 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8961,11 +8957,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8978,25 +8974,25 @@
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9045,7 +9041,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9057,13 +9053,13 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9077,7 +9073,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9088,7 +9084,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9100,13 +9096,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9157,31 +9153,31 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9189,7 +9185,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9200,7 +9196,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9212,13 +9208,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9269,25 +9265,25 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9301,7 +9297,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9312,7 +9308,7 @@
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9324,13 +9320,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9357,55 +9353,55 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9413,7 +9409,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9424,7 +9420,7 @@
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9436,13 +9432,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9469,55 +9465,55 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9525,7 +9521,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9548,19 +9544,19 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9585,14 +9581,14 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9609,7 +9605,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9621,19 +9617,19 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9641,7 +9637,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9664,13 +9660,13 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9697,14 +9693,14 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9721,7 +9717,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9733,19 +9729,19 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9753,7 +9749,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9776,13 +9772,13 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9809,14 +9805,14 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9833,7 +9829,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9845,19 +9841,19 @@
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9865,7 +9861,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9876,7 +9872,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -9888,13 +9884,13 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9945,31 +9941,31 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -9977,7 +9973,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9988,7 +9984,7 @@
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10000,13 +9996,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10033,55 +10029,55 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10089,7 +10085,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10112,16 +10108,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10171,7 +10167,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10183,13 +10179,13 @@
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10198,12 +10194,12 @@
         <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10214,7 +10210,7 @@
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10226,13 +10222,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10283,25 +10279,25 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10315,11 +10311,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10338,16 +10334,16 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10397,7 +10393,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10409,13 +10405,13 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10429,11 +10425,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10446,25 +10442,25 @@
         <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10513,7 +10509,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10525,13 +10521,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10545,7 +10541,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10553,10 +10549,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10568,13 +10564,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10625,31 +10621,31 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AK77" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10657,7 +10653,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10668,7 +10664,7 @@
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10680,16 +10676,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10715,49 +10711,49 @@
         <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Y78" t="s" s="2">
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10771,7 +10767,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10782,7 +10778,7 @@
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -10794,16 +10790,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10829,14 +10825,14 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10853,19 +10849,19 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
@@ -10885,7 +10881,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10896,7 +10892,7 @@
         <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -10908,13 +10904,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10965,25 +10961,25 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -10997,7 +10993,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11008,7 +11004,7 @@
         <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -11020,13 +11016,13 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11077,31 +11073,31 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11109,7 +11105,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11120,7 +11116,7 @@
         <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -11132,16 +11128,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11191,25 +11187,25 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T01:52:10+00:00</t>
+    <t>2022-10-08T02:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:01:28+00:00</t>
+    <t>2022-10-08T02:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:22+00:00</t>
+    <t>2022-10-08T02:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:45+00:00</t>
+    <t>2022-10-08T02:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:04:28+00:00</t>
+    <t>2022-10-08T02:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:06:31+00:00</t>
+    <t>2022-10-08T02:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:08:40+00:00</t>
+    <t>2022-10-08T02:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:09:14+00:00</t>
+    <t>2022-10-08T02:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:10:18+00:00</t>
+    <t>2022-10-08T02:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:12:18+00:00</t>
+    <t>2022-10-08T02:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:13:28+00:00</t>
+    <t>2022-10-08T02:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:14:23+00:00</t>
+    <t>2022-11-29T17:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T17:04:20+00:00</t>
+    <t>2023-03-15T20:21:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:21:30+00:00</t>
+    <t>2023-03-15T20:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:20+00:00</t>
+    <t>2023-03-15T20:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:19+00:00</t>
+    <t>2023-03-16T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5912,7 +5912,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6027,7 +6027,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6259,7 +6259,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6374,7 +6374,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -7302,7 +7302,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7534,7 +7534,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7651,7 +7651,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7768,7 +7768,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -8698,7 +8698,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8815,7 +8815,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T09:46:21+00:00</t>
+    <t>2023-03-16T13:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:05:08+00:00</t>
+    <t>2023-03-20T20:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T20:26:34+00:00</t>
+    <t>2023-05-01T15:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-encounter</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-encounter</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:55:39+00:00</t>
+    <t>2023-05-08T19:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -878,7 +878,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-patient)
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-location)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-location)
 </t>
   </si>
   <si>
@@ -1566,7 +1566,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-encounter)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-encounter)
 </t>
   </si>
   <si>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T19:25:22+00:00</t>
+    <t>2023-05-09T05:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T05:52:21+00:00</t>
+    <t>2023-05-17T15:10:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-encounter.xlsx
+++ b/branches/main/StructureDefinition-omrs-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:16:34+00:00</t>
+    <t>2023-06-23T17:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
